--- a/設定.xlsx
+++ b/設定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sue-t\Documents\Eclipse\workspace2019\SuiToChou2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1C02B9-F5B3-4B1E-AF74-43A29B99E4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC87F2F5-C2FD-46C8-8D4F-AB181D622CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3075" windowWidth="29040" windowHeight="15840" xr2:uid="{44BF6A9A-49FA-46FD-A4A7-8C425E8E4F01}"/>
+    <workbookView xWindow="15630" yWindow="105" windowWidth="16440" windowHeight="28440" xr2:uid="{44BF6A9A-49FA-46FD-A4A7-8C425E8E4F01}"/>
   </bookViews>
   <sheets>
     <sheet name="設定" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>入力ファイル名</t>
     <rPh sb="0" eb="2">
@@ -216,6 +216,27 @@
   </si>
   <si>
     <t>会計データ_テスト.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付フォーマット</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yyyy-mm-dd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ggge年mm月dd日</t>
+  </si>
+  <si>
+    <t>期間日付フォーマット</t>
+    <rPh sb="0" eb="4">
+      <t>キカンヒヅケ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -580,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A974EA-D039-4AF1-AEE5-038807055EC0}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -733,6 +754,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設定.xlsx
+++ b/設定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sue-t\Documents\Eclipse\workspace2019\SuiToChou2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC87F2F5-C2FD-46C8-8D4F-AB181D622CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1C02B9-F5B3-4B1E-AF74-43A29B99E4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="105" windowWidth="16440" windowHeight="28440" xr2:uid="{44BF6A9A-49FA-46FD-A4A7-8C425E8E4F01}"/>
+    <workbookView xWindow="-28920" yWindow="3075" windowWidth="29040" windowHeight="15840" xr2:uid="{44BF6A9A-49FA-46FD-A4A7-8C425E8E4F01}"/>
   </bookViews>
   <sheets>
     <sheet name="設定" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>入力ファイル名</t>
     <rPh sb="0" eb="2">
@@ -216,27 +216,6 @@
   </si>
   <si>
     <t>会計データ_テスト.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付フォーマット</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>yyyy-mm-dd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ggge年mm月dd日</t>
-  </si>
-  <si>
-    <t>期間日付フォーマット</t>
-    <rPh sb="0" eb="4">
-      <t>キカンヒヅケ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -601,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A974EA-D039-4AF1-AEE5-038807055EC0}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -754,22 +733,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
